--- a/ED/Guía 6.xlsx
+++ b/ED/Guía 6.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matia\OneDrive\Escritorio\FICH\ED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B455AFC6-FD97-495E-ABC1-878377AD5C4B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83EB8175-F053-4B5C-8584-36764AAD1CAA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{9422CB81-DE44-400D-9C54-0F4E2232237C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{9422CB81-DE44-400D-9C54-0F4E2232237C}"/>
   </bookViews>
   <sheets>
     <sheet name="Ej 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Ej 3" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="86">
   <si>
     <t>FlipFlopD</t>
   </si>
@@ -229,6 +230,60 @@
   </si>
   <si>
     <t>combinacional</t>
+  </si>
+  <si>
+    <t>FlipFlopJK</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>¬q</t>
+  </si>
+  <si>
+    <t>Tabla de estado siguiente</t>
+  </si>
+  <si>
+    <t>Estado Actual</t>
+  </si>
+  <si>
+    <t>Estado Siguiente</t>
+  </si>
+  <si>
+    <t>Re</t>
+  </si>
+  <si>
+    <t>Q0</t>
+  </si>
+  <si>
+    <t>Tabla de Transición</t>
+  </si>
+  <si>
+    <t>Qn</t>
+  </si>
+  <si>
+    <t>Qn+1</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>J1=¬Re*Q0</t>
+  </si>
+  <si>
+    <t>J0=¬Re</t>
+  </si>
+  <si>
+    <t>K1=Re+Q0</t>
+  </si>
+  <si>
+    <t>K0=1</t>
   </si>
 </sst>
 </file>
@@ -270,7 +325,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -426,11 +481,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -445,15 +537,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -494,6 +577,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -811,8 +918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{691ED781-1400-4C3B-A2F7-7A992FE75A47}">
   <dimension ref="B2:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G17" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+    <sheetView topLeftCell="H17" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -839,7 +946,7 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-      <c r="N2" s="18" t="s">
+      <c r="N2" s="15" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1035,21 +1142,21 @@
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="6" t="s">
+      <c r="D13" s="20"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="6" t="s">
+      <c r="G13" s="20"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="J13" s="7"/>
-      <c r="K13" s="8"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="21"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1" t="s">
         <v>29</v>
@@ -1062,31 +1169,31 @@
       <c r="B14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="6" t="s">
         <v>23</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="H14" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I14" s="9" t="s">
+      <c r="I14" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K14" s="10" t="s">
+      <c r="K14" s="7" t="s">
         <v>28</v>
       </c>
       <c r="L14" s="1"/>
@@ -1096,38 +1203,38 @@
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="11" t="s">
+      <c r="B15" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="11" t="s">
+      <c r="E15" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15" s="11" t="s">
+      <c r="H15" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="8" t="s">
         <v>10</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K15" s="12" t="s">
+      <c r="K15" s="9" t="s">
         <v>11</v>
       </c>
       <c r="L15" s="1"/>
-      <c r="M15" s="17" t="s">
+      <c r="M15" s="14" t="s">
         <v>30</v>
       </c>
       <c r="N15" t="s">
@@ -1135,75 +1242,75 @@
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="11" t="s">
+      <c r="B16" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="11" t="s">
+      <c r="E16" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="8" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I16" s="11" t="s">
+      <c r="H16" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" s="8" t="s">
         <v>10</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K16" s="12" t="s">
+      <c r="K16" s="9" t="s">
         <v>10</v>
       </c>
       <c r="L16" s="1"/>
-      <c r="M16" s="17"/>
+      <c r="M16" s="14"/>
       <c r="N16" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="11" t="s">
+      <c r="E17" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H17" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I17" s="11" t="s">
+      <c r="H17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="8" t="s">
         <v>10</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K17" s="12" t="s">
+      <c r="K17" s="9" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="1"/>
-      <c r="M17" s="17" t="s">
+      <c r="M17" s="14" t="s">
         <v>31</v>
       </c>
       <c r="N17" t="s">
@@ -1211,192 +1318,192 @@
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="11" t="s">
+      <c r="E18" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="8" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H18" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I18" s="11" t="s">
+      <c r="H18" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" s="8" t="s">
         <v>11</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K18" s="12" t="s">
+      <c r="K18" s="9" t="s">
         <v>10</v>
       </c>
       <c r="L18" s="1"/>
-      <c r="M18" s="17"/>
+      <c r="M18" s="14"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="11" t="s">
+      <c r="E19" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="8" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I19" s="11" t="s">
+      <c r="H19" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" s="8" t="s">
         <v>11</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K19" s="12" t="s">
+      <c r="K19" s="9" t="s">
         <v>11</v>
       </c>
       <c r="L19" s="1"/>
-      <c r="M19" s="17" t="s">
+      <c r="M19" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="N19" s="20" t="s">
+      <c r="N19" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="O19" s="19" t="s">
+      <c r="O19" s="16" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="11" t="s">
+      <c r="E20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="8" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H20" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I20" s="11" t="s">
+      <c r="H20" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" s="8" t="s">
         <v>11</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K20" s="12" t="s">
+      <c r="K20" s="9" t="s">
         <v>10</v>
       </c>
       <c r="L20" s="1"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="21" t="s">
+      <c r="M20" s="14"/>
+      <c r="N20" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="O20" s="19" t="s">
+      <c r="O20" s="16" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="11" t="s">
+      <c r="E21" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="8" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H21" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I21" s="11" t="s">
+      <c r="H21" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" s="8" t="s">
         <v>11</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K21" s="12" t="s">
+      <c r="K21" s="9" t="s">
         <v>11</v>
       </c>
       <c r="L21" s="1"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="21" t="s">
+      <c r="M21" s="14"/>
+      <c r="N21" s="18" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="22" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H22" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="I22" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="J22" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="K22" s="15" t="s">
+      <c r="C22" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K22" s="12" t="s">
         <v>10</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
-      <c r="N22" s="21" t="s">
+      <c r="N22" s="18" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1413,7 +1520,7 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
-      <c r="N23" s="21" t="s">
+      <c r="N23" s="18" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1430,7 +1537,7 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
-      <c r="N24" s="21" t="s">
+      <c r="N24" s="18" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1447,7 +1554,7 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
-      <c r="N25" s="21"/>
+      <c r="N25" s="18"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
@@ -1462,7 +1569,7 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
-      <c r="N26" s="21" t="s">
+      <c r="N26" s="18" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1479,7 +1586,7 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
-      <c r="N27" s="21" t="s">
+      <c r="N27" s="18" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1496,7 +1603,7 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
-      <c r="N28" s="21" t="s">
+      <c r="N28" s="18" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1513,10 +1620,10 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
-      <c r="N29" s="21" t="s">
+      <c r="N29" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="O29" s="18" t="s">
+      <c r="O29" s="15" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1533,10 +1640,10 @@
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
-      <c r="N30" s="21" t="s">
+      <c r="N30" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="O30" s="18" t="s">
+      <c r="O30" s="15" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1553,10 +1660,10 @@
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
-      <c r="N31" s="21" t="s">
+      <c r="N31" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="O31" s="18"/>
+      <c r="O31" s="15"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
@@ -1571,37 +1678,37 @@
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
-      <c r="N32" s="21" t="s">
+      <c r="N32" s="18" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="33" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N33" s="21" t="s">
+      <c r="N33" s="18" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="34" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N34" s="21" t="s">
+      <c r="N34" s="18" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="35" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N35" s="21" t="s">
+      <c r="N35" s="18" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="36" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N36" s="21" t="s">
+      <c r="N36" s="18" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="37" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N37" s="21" t="s">
+      <c r="N37" s="18" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="38" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N38" s="21"/>
+      <c r="N38" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1614,4 +1721,793 @@
     <ignoredError sqref="E5:H8 B15:K22" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA4FD606-ABDF-46E5-826C-4801743185F3}">
+  <dimension ref="B2:O43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" s="23"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="J4" s="21"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" s="14"/>
+      <c r="L5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="14"/>
+      <c r="L6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O6" s="25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="14"/>
+      <c r="L7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="O7" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="14"/>
+      <c r="L8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="O8" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="14"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="F4:H4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="B5:D8 F6:J13 L5:O8" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
 </file>